--- a/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.4559345309823</v>
+        <v>13.787193484549</v>
       </c>
       <c r="C11" t="n">
-        <v>45.63692156259509</v>
+        <v>46.84397769578108</v>
       </c>
       <c r="D11" t="n">
-        <v>58.45831464194607</v>
+        <v>59.50677201568362</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.789196447272371</v>
+        <v>0.08789196447272371</v>
       </c>
       <c r="C2" t="n">
-        <v>31.1801559464183</v>
+        <v>0.311801559464183</v>
       </c>
       <c r="D2" t="n">
-        <v>38.7269989159951</v>
+        <v>0.387269989159951</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.804476901153038</v>
+        <v>0.05804476901153038</v>
       </c>
       <c r="C3" t="n">
-        <v>19.70965983935915</v>
+        <v>0.1970965983935915</v>
       </c>
       <c r="D3" t="n">
-        <v>34.00079816975226</v>
+        <v>0.3400079816975226</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.770516439652139</v>
+        <v>0.08770516439652139</v>
       </c>
       <c r="C4" t="n">
-        <v>31.12029152690751</v>
+        <v>0.3112029152690751</v>
       </c>
       <c r="D4" t="n">
-        <v>38.78655394322691</v>
+        <v>0.387865539432269</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.024768278074244</v>
+        <v>0.09024768278074244</v>
       </c>
       <c r="C5" t="n">
-        <v>32.10936165729665</v>
+        <v>0.3210936165729665</v>
       </c>
       <c r="D5" t="n">
-        <v>39.32925087418077</v>
+        <v>0.3932925087418077</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.688941646636248</v>
+        <v>0.08688941646636249</v>
       </c>
       <c r="C6" t="n">
-        <v>30.28622688441318</v>
+        <v>0.3028622688441318</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6880905530543</v>
+        <v>0.386880905530543</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.23136977999424</v>
+        <v>0.1123136977999424</v>
       </c>
       <c r="C7" t="n">
-        <v>39.41514523249162</v>
+        <v>0.3941514523249162</v>
       </c>
       <c r="D7" t="n">
-        <v>47.78381296050566</v>
+        <v>0.4778381296050566</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.850146961252127</v>
+        <v>0.05850146961252127</v>
       </c>
       <c r="C8" t="n">
-        <v>19.87922030344592</v>
+        <v>0.1987922030344592</v>
       </c>
       <c r="D8" t="n">
-        <v>33.98507923627969</v>
+        <v>0.3398507923627969</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.373863135822056</v>
+        <v>0.07373863135822056</v>
       </c>
       <c r="C9" t="n">
-        <v>25.63901057367951</v>
+        <v>0.256390105736795</v>
       </c>
       <c r="D9" t="n">
-        <v>35.52707049832601</v>
+        <v>0.3552707049832601</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>524.8574880020312</v>
+        <v>5.248574880020312</v>
       </c>
       <c r="C10" t="n">
-        <v>2455.103114643923</v>
+        <v>24.55103114643923</v>
       </c>
       <c r="D10" t="n">
-        <v>2455.113480875824</v>
+        <v>24.55113480875824</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.787193484549</v>
+        <v>0.1373598345639178</v>
       </c>
       <c r="C11" t="n">
-        <v>46.84397769578108</v>
+        <v>0.4665842966628196</v>
       </c>
       <c r="D11" t="n">
-        <v>59.50677201568362</v>
+        <v>0.59348864922152</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.83124053711605</v>
+        <v>0.1183124053711605</v>
       </c>
       <c r="C12" t="n">
-        <v>40.23431206450743</v>
+        <v>0.4023431206450743</v>
       </c>
       <c r="D12" t="n">
-        <v>51.52050451176995</v>
+        <v>0.5152050451176995</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.35817458386378</v>
+        <v>0.1635817458386377</v>
       </c>
       <c r="C13" t="n">
-        <v>56.27953191528259</v>
+        <v>0.5627953191528259</v>
       </c>
       <c r="D13" t="n">
-        <v>67.61132969263217</v>
+        <v>0.6761132969263217</v>
       </c>
     </row>
   </sheetData>
